--- a/data/pca/factorExposure/factorExposure_2012-06-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-06-08.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01708462135299323</v>
+        <v>-0.02184792639287663</v>
       </c>
       <c r="C2">
-        <v>-0.03147515269146321</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02439639543602864</v>
+      </c>
+      <c r="D2">
+        <v>0.001920524216390819</v>
+      </c>
+      <c r="E2">
+        <v>0.02749719683285855</v>
+      </c>
+      <c r="F2">
+        <v>-0.007793222733738108</v>
+      </c>
+      <c r="G2">
+        <v>-0.008004679068571966</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +757,45 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06830502096225355</v>
+        <v>-0.07892684553068516</v>
       </c>
       <c r="C4">
-        <v>-0.06418591463720134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.04162302454422739</v>
+      </c>
+      <c r="D4">
+        <v>-0.07016305538535875</v>
+      </c>
+      <c r="E4">
+        <v>0.0004940028150125277</v>
+      </c>
+      <c r="F4">
+        <v>-0.03350986425373809</v>
+      </c>
+      <c r="G4">
+        <v>0.005378575347222789</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +803,275 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.09740857936674575</v>
+        <v>-0.1150941161427744</v>
       </c>
       <c r="C6">
-        <v>-0.06946630713101405</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.0418669464740714</v>
+      </c>
+      <c r="D6">
+        <v>-0.01229583024780174</v>
+      </c>
+      <c r="E6">
+        <v>-0.008094146904185463</v>
+      </c>
+      <c r="F6">
+        <v>-0.04743423526651259</v>
+      </c>
+      <c r="G6">
+        <v>-0.01234557197412073</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.04559195158620175</v>
+        <v>-0.05788187638230746</v>
       </c>
       <c r="C7">
-        <v>-0.03340382492993087</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.02389357606061349</v>
+      </c>
+      <c r="D7">
+        <v>-0.0363454627414809</v>
+      </c>
+      <c r="E7">
+        <v>0.01972053307664281</v>
+      </c>
+      <c r="F7">
+        <v>-0.03582386869072148</v>
+      </c>
+      <c r="G7">
+        <v>0.04212760351360886</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.03338049865334056</v>
+        <v>-0.03696743581471097</v>
       </c>
       <c r="C8">
-        <v>-0.02794402395852811</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.0161353141589398</v>
+      </c>
+      <c r="D8">
+        <v>-0.03593257739171511</v>
+      </c>
+      <c r="E8">
+        <v>0.00492345429633703</v>
+      </c>
+      <c r="F8">
+        <v>-0.05544630469589588</v>
+      </c>
+      <c r="G8">
+        <v>-0.02521554046510221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06274845322165865</v>
+        <v>-0.07281658546531942</v>
       </c>
       <c r="C9">
-        <v>-0.04894318402788426</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.02864669927621053</v>
+      </c>
+      <c r="D9">
+        <v>-0.06710186252148655</v>
+      </c>
+      <c r="E9">
+        <v>0.0162837048216123</v>
+      </c>
+      <c r="F9">
+        <v>-0.03962941021588132</v>
+      </c>
+      <c r="G9">
+        <v>0.005546461887954275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02606713021647392</v>
+        <v>-0.03939433776533605</v>
       </c>
       <c r="C10">
-        <v>-0.03873520773180578</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.04089759590063349</v>
+      </c>
+      <c r="D10">
+        <v>0.1816083696894416</v>
+      </c>
+      <c r="E10">
+        <v>0.04593322889135415</v>
+      </c>
+      <c r="F10">
+        <v>-0.03637799442969406</v>
+      </c>
+      <c r="G10">
+        <v>0.04342371746140802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.06655599173640464</v>
+        <v>-0.07581085664388404</v>
       </c>
       <c r="C11">
-        <v>-0.0519540073006545</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.02892071303368245</v>
+      </c>
+      <c r="D11">
+        <v>-0.06757102767678196</v>
+      </c>
+      <c r="E11">
+        <v>-0.01154405023414045</v>
+      </c>
+      <c r="F11">
+        <v>-0.03276666503006196</v>
+      </c>
+      <c r="G11">
+        <v>0.02013510513821401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.05165658663178641</v>
+        <v>-0.06378164175857948</v>
       </c>
       <c r="C12">
-        <v>-0.05254096931855586</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03522644646795949</v>
+      </c>
+      <c r="D12">
+        <v>-0.05264773183280988</v>
+      </c>
+      <c r="E12">
+        <v>0.007438339649774856</v>
+      </c>
+      <c r="F12">
+        <v>-0.03069855185144838</v>
+      </c>
+      <c r="G12">
+        <v>0.01552084901244526</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.05821218256479193</v>
+        <v>-0.06480087121957211</v>
       </c>
       <c r="C13">
-        <v>-0.05404732992023677</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.03133918560601869</v>
+      </c>
+      <c r="D13">
+        <v>-0.04804038314858944</v>
+      </c>
+      <c r="E13">
+        <v>0.006542511714631231</v>
+      </c>
+      <c r="F13">
+        <v>-0.01684680017764334</v>
+      </c>
+      <c r="G13">
+        <v>0.006672147064185761</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.0311280632060721</v>
+        <v>-0.03944849572726818</v>
       </c>
       <c r="C14">
-        <v>-0.0284743516642905</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.0209922572983784</v>
+      </c>
+      <c r="D14">
+        <v>-0.009603075554584416</v>
+      </c>
+      <c r="E14">
+        <v>0.0141103275531399</v>
+      </c>
+      <c r="F14">
+        <v>-0.0159129288093769</v>
+      </c>
+      <c r="G14">
+        <v>-0.0006932064308735094</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03996547521805615</v>
+        <v>-0.04160695696571743</v>
       </c>
       <c r="C15">
-        <v>-0.013673337277262</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.002262069574848403</v>
+      </c>
+      <c r="D15">
+        <v>-0.01569989179508812</v>
+      </c>
+      <c r="E15">
+        <v>0.03893975054894473</v>
+      </c>
+      <c r="F15">
+        <v>-0.003180537874678282</v>
+      </c>
+      <c r="G15">
+        <v>-0.02044025555677505</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0561542203579045</v>
+        <v>-0.06437953173617762</v>
       </c>
       <c r="C16">
-        <v>-0.04604701204080903</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.02748537913159723</v>
+      </c>
+      <c r="D16">
+        <v>-0.06093564506710487</v>
+      </c>
+      <c r="E16">
+        <v>-0.00122739616253537</v>
+      </c>
+      <c r="F16">
+        <v>-0.03014881470022778</v>
+      </c>
+      <c r="G16">
+        <v>0.00833692599883012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1079,22 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1102,22 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.06086308686493837</v>
+        <v>-0.06180278627059161</v>
       </c>
       <c r="C20">
-        <v>-0.03849971828320453</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.0164073535706424</v>
+      </c>
+      <c r="D20">
+        <v>-0.04918575960804213</v>
+      </c>
+      <c r="E20">
+        <v>0.01501580209073328</v>
+      </c>
+      <c r="F20">
+        <v>-0.02765314337668221</v>
+      </c>
+      <c r="G20">
+        <v>0.01216925914096279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.02572783061884762</v>
+        <v>-0.02435978148813416</v>
       </c>
       <c r="C21">
-        <v>-0.001060002259387445</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.008537025080666913</v>
+      </c>
+      <c r="D21">
+        <v>-0.03038357286866044</v>
+      </c>
+      <c r="E21">
+        <v>0.08589697316120312</v>
+      </c>
+      <c r="F21">
+        <v>-0.002401862687682925</v>
+      </c>
+      <c r="G21">
+        <v>-0.01592076969388498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.06654864417650916</v>
+        <v>-0.06373969452739738</v>
       </c>
       <c r="C22">
-        <v>-0.07235765530434839</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.04167521409297152</v>
+      </c>
+      <c r="D22">
+        <v>-0.10334724918957</v>
+      </c>
+      <c r="E22">
+        <v>0.6166337397493451</v>
+      </c>
+      <c r="F22">
+        <v>0.1083602188424024</v>
+      </c>
+      <c r="G22">
+        <v>0.02399500988349996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.0677423819151578</v>
+        <v>-0.06426319802402816</v>
       </c>
       <c r="C23">
-        <v>-0.07215426560761187</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.04090472964280327</v>
+      </c>
+      <c r="D23">
+        <v>-0.1040694852790145</v>
+      </c>
+      <c r="E23">
+        <v>0.6157684748671366</v>
+      </c>
+      <c r="F23">
+        <v>0.1078388506691517</v>
+      </c>
+      <c r="G23">
+        <v>0.02213073480281541</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06465301827215865</v>
+        <v>-0.07570966552480785</v>
       </c>
       <c r="C24">
-        <v>-0.05425896827202403</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.032331601645153</v>
+      </c>
+      <c r="D24">
+        <v>-0.06511041769119828</v>
+      </c>
+      <c r="E24">
+        <v>0.006285457497993341</v>
+      </c>
+      <c r="F24">
+        <v>-0.04260655211233864</v>
+      </c>
+      <c r="G24">
+        <v>0.007609989483297294</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.06433968588258958</v>
+        <v>-0.0737023886198297</v>
       </c>
       <c r="C25">
-        <v>-0.05899814337028211</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03650425015094069</v>
+      </c>
+      <c r="D25">
+        <v>-0.06310307972678293</v>
+      </c>
+      <c r="E25">
+        <v>0.009446896909586167</v>
+      </c>
+      <c r="F25">
+        <v>-0.03864363242255555</v>
+      </c>
+      <c r="G25">
+        <v>-0.003057358547599057</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.03814506712653749</v>
+        <v>-0.04188342316743821</v>
       </c>
       <c r="C26">
-        <v>-0.01513636348641279</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.005281578313840503</v>
+      </c>
+      <c r="D26">
+        <v>-0.02329844465355649</v>
+      </c>
+      <c r="E26">
+        <v>0.03356617696575084</v>
+      </c>
+      <c r="F26">
+        <v>-0.02386682017421709</v>
+      </c>
+      <c r="G26">
+        <v>0.01302974206839319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1309,229 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.04910636756332344</v>
+        <v>-0.07223503442451569</v>
       </c>
       <c r="C28">
-        <v>-0.07434371274882362</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.07506419583941966</v>
+      </c>
+      <c r="D28">
+        <v>0.3225778877224898</v>
+      </c>
+      <c r="E28">
+        <v>0.03617218647527446</v>
+      </c>
+      <c r="F28">
+        <v>-0.04696258756108421</v>
+      </c>
+      <c r="G28">
+        <v>-0.03153641193687676</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.03569142173327952</v>
+        <v>-0.04439707722587506</v>
       </c>
       <c r="C29">
-        <v>-0.03248170760883001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.02420430131648518</v>
+      </c>
+      <c r="D29">
+        <v>-0.01008143872557661</v>
+      </c>
+      <c r="E29">
+        <v>0.03885210887028084</v>
+      </c>
+      <c r="F29">
+        <v>-0.01491994906652297</v>
+      </c>
+      <c r="G29">
+        <v>0.01548364168604427</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.1136201632189162</v>
+        <v>-0.1324620877957259</v>
       </c>
       <c r="C30">
-        <v>-0.1018533256715311</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.06416197894701278</v>
+      </c>
+      <c r="D30">
+        <v>-0.09534495282579901</v>
+      </c>
+      <c r="E30">
+        <v>0.0423023698789945</v>
+      </c>
+      <c r="F30">
+        <v>-0.02876041605239152</v>
+      </c>
+      <c r="G30">
+        <v>-0.01500294298485277</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.03805610616110113</v>
+        <v>-0.04447097996904502</v>
       </c>
       <c r="C31">
-        <v>-0.02349177274913499</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01303127692894611</v>
+      </c>
+      <c r="D31">
+        <v>-0.02848233579444388</v>
+      </c>
+      <c r="E31">
+        <v>0.02023279902960705</v>
+      </c>
+      <c r="F31">
+        <v>-0.01353651275077731</v>
+      </c>
+      <c r="G31">
+        <v>0.02438719379498946</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.03325303852854885</v>
+        <v>-0.03297951049387923</v>
       </c>
       <c r="C32">
-        <v>-0.02319065967812704</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.01215786335188953</v>
+      </c>
+      <c r="D32">
+        <v>-0.01283083945956657</v>
+      </c>
+      <c r="E32">
+        <v>0.06548849384824609</v>
+      </c>
+      <c r="F32">
+        <v>-0.0002012806591725729</v>
+      </c>
+      <c r="G32">
+        <v>-0.02571320479914219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07318333460182964</v>
+        <v>-0.0881009571186305</v>
       </c>
       <c r="C33">
-        <v>-0.0538375386435964</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.03267069877097767</v>
+      </c>
+      <c r="D33">
+        <v>-0.06107988711201933</v>
+      </c>
+      <c r="E33">
+        <v>0.01174900141370505</v>
+      </c>
+      <c r="F33">
+        <v>-0.007596667844966432</v>
+      </c>
+      <c r="G33">
+        <v>0.01423392192881019</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05063067693366154</v>
+        <v>-0.05799255986199831</v>
       </c>
       <c r="C34">
-        <v>-0.03452449785845876</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01732197537854774</v>
+      </c>
+      <c r="D34">
+        <v>-0.06008776584176372</v>
+      </c>
+      <c r="E34">
+        <v>0.0005366863308158793</v>
+      </c>
+      <c r="F34">
+        <v>-0.02461201455216552</v>
+      </c>
+      <c r="G34">
+        <v>0.003347863363080192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.03579884891653352</v>
+        <v>-0.04039361894713822</v>
       </c>
       <c r="C35">
-        <v>-0.01227590962592857</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.003945534537145234</v>
+      </c>
+      <c r="D35">
+        <v>-0.0131241824894061</v>
+      </c>
+      <c r="E35">
+        <v>0.02107108492697184</v>
+      </c>
+      <c r="F35">
+        <v>-0.0001498827109935767</v>
+      </c>
+      <c r="G35">
+        <v>0.009187845920365745</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01785498291647741</v>
+        <v>-0.02512078405551945</v>
       </c>
       <c r="C36">
-        <v>-0.01707159709007498</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.01216447466914175</v>
+      </c>
+      <c r="D36">
+        <v>-0.01994334747045133</v>
+      </c>
+      <c r="E36">
+        <v>0.03533627107339046</v>
+      </c>
+      <c r="F36">
+        <v>-0.01999845106152859</v>
+      </c>
+      <c r="G36">
+        <v>0.0166961343548563</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1539,114 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03803534152618959</v>
+        <v>-0.04028249890584909</v>
       </c>
       <c r="C38">
-        <v>-0.01121627187947825</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.001873578704863919</v>
+      </c>
+      <c r="D38">
+        <v>-0.01327896820277128</v>
+      </c>
+      <c r="E38">
+        <v>0.05992426011842866</v>
+      </c>
+      <c r="F38">
+        <v>0.01887353859470477</v>
+      </c>
+      <c r="G38">
+        <v>-0.01721057726067902</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08655859412785624</v>
+        <v>-0.1021826863923158</v>
       </c>
       <c r="C39">
-        <v>-0.0864773057699198</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.05558421539531674</v>
+      </c>
+      <c r="D39">
+        <v>-0.08537230243237676</v>
+      </c>
+      <c r="E39">
+        <v>-0.01265624862161414</v>
+      </c>
+      <c r="F39">
+        <v>-0.01983278955216787</v>
+      </c>
+      <c r="G39">
+        <v>-0.02047625804338081</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.06441686851873851</v>
+        <v>-0.07132424666854784</v>
       </c>
       <c r="C40">
-        <v>-0.05691986235767853</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.03445957845531201</v>
+      </c>
+      <c r="D40">
+        <v>-0.01242883486984081</v>
+      </c>
+      <c r="E40">
+        <v>0.02807621220903997</v>
+      </c>
+      <c r="F40">
+        <v>0.0456939820147013</v>
+      </c>
+      <c r="G40">
+        <v>-0.06423373987948137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.03923018046988717</v>
+        <v>-0.04380667256967224</v>
       </c>
       <c r="C41">
-        <v>-0.0170497660344122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.006548820081266228</v>
+      </c>
+      <c r="D41">
+        <v>-0.04059227284952542</v>
+      </c>
+      <c r="E41">
+        <v>0.007037255562027966</v>
+      </c>
+      <c r="F41">
+        <v>0.006320083778572933</v>
+      </c>
+      <c r="G41">
+        <v>-0.01060743195049639</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1654,68 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04293991332887191</v>
+        <v>-0.05259362706122982</v>
       </c>
       <c r="C43">
-        <v>-0.03481628164124102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.02100573094685207</v>
+      </c>
+      <c r="D43">
+        <v>-0.0289961444879084</v>
+      </c>
+      <c r="E43">
+        <v>0.01735635798041531</v>
+      </c>
+      <c r="F43">
+        <v>-0.01479440449824938</v>
+      </c>
+      <c r="G43">
+        <v>0.009434146675877737</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.0884825729517776</v>
+        <v>-0.09160671169047058</v>
       </c>
       <c r="C44">
-        <v>-0.09508586810200892</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.05949884452622368</v>
+      </c>
+      <c r="D44">
+        <v>-0.05806972047703483</v>
+      </c>
+      <c r="E44">
+        <v>0.09533134568274365</v>
+      </c>
+      <c r="F44">
+        <v>-0.06459644105564544</v>
+      </c>
+      <c r="G44">
+        <v>-0.02197756056879482</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1723,160 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02656782427506261</v>
+        <v>-0.02826024381147338</v>
       </c>
       <c r="C46">
-        <v>-0.01872259450512239</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.009651324855863517</v>
+      </c>
+      <c r="D46">
+        <v>-0.03339840002306332</v>
+      </c>
+      <c r="E46">
+        <v>0.01687959499285313</v>
+      </c>
+      <c r="F46">
+        <v>-0.01938341255782546</v>
+      </c>
+      <c r="G46">
+        <v>0.0007568295425281845</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.02657910467744811</v>
+        <v>-0.03023071428944863</v>
       </c>
       <c r="C47">
-        <v>-0.02135901491713639</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.01330907920056727</v>
+      </c>
+      <c r="D47">
+        <v>-0.01562999569491759</v>
+      </c>
+      <c r="E47">
+        <v>0.04880358294876232</v>
+      </c>
+      <c r="F47">
+        <v>-0.01482252690182305</v>
+      </c>
+      <c r="G47">
+        <v>0.03201806448363776</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.02820388206824249</v>
+        <v>-0.03258919437107782</v>
       </c>
       <c r="C48">
-        <v>-0.02033472636541279</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.01137743696747904</v>
+      </c>
+      <c r="D48">
+        <v>-0.03198496500667445</v>
+      </c>
+      <c r="E48">
+        <v>0.04179416386040066</v>
+      </c>
+      <c r="F48">
+        <v>-0.01961549984330147</v>
+      </c>
+      <c r="G48">
+        <v>0.0009987478406044772</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1490957790064532</v>
+        <v>-0.1778467323122023</v>
       </c>
       <c r="C49">
-        <v>-0.0927448096954111</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.05183110498249922</v>
+      </c>
+      <c r="D49">
+        <v>-0.01198711239909099</v>
+      </c>
+      <c r="E49">
+        <v>-0.1317974905079415</v>
+      </c>
+      <c r="F49">
+        <v>-0.02003012269247818</v>
+      </c>
+      <c r="G49">
+        <v>0.0497418408045003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.03344653282770498</v>
+        <v>-0.04263755649217491</v>
       </c>
       <c r="C50">
-        <v>-0.02819292214515919</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.02064045315038478</v>
+      </c>
+      <c r="D50">
+        <v>-0.03631666355365152</v>
+      </c>
+      <c r="E50">
+        <v>0.0446950729540383</v>
+      </c>
+      <c r="F50">
+        <v>-0.02697341858136315</v>
+      </c>
+      <c r="G50">
+        <v>0.02297403446105188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.02539335889356354</v>
+        <v>-0.02810624938656252</v>
       </c>
       <c r="C51">
-        <v>-0.01509383979035132</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.007857267466616968</v>
+      </c>
+      <c r="D51">
+        <v>-0.02666365799438046</v>
+      </c>
+      <c r="E51">
+        <v>0.01810956848667817</v>
+      </c>
+      <c r="F51">
+        <v>-0.01180503613623576</v>
+      </c>
+      <c r="G51">
+        <v>-0.005717684849818089</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1884,114 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1363242666479561</v>
+        <v>-0.1581029373370322</v>
       </c>
       <c r="C53">
-        <v>-0.1001628158571745</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.06496858848803026</v>
+      </c>
+      <c r="D53">
+        <v>-0.02238847094964044</v>
+      </c>
+      <c r="E53">
+        <v>-0.04189858294569115</v>
+      </c>
+      <c r="F53">
+        <v>-0.01328091710595304</v>
+      </c>
+      <c r="G53">
+        <v>0.003109556809004702</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.05168042033434975</v>
+        <v>-0.05541680656200645</v>
       </c>
       <c r="C54">
-        <v>-0.02916236551005709</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01187046603803722</v>
+      </c>
+      <c r="D54">
+        <v>-0.03487229044868741</v>
+      </c>
+      <c r="E54">
+        <v>0.04442208873546646</v>
+      </c>
+      <c r="F54">
+        <v>-0.01737018704282035</v>
+      </c>
+      <c r="G54">
+        <v>-0.002937326051538903</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.09116695578924183</v>
+        <v>-0.09977611514492171</v>
       </c>
       <c r="C55">
-        <v>-0.06598550590216747</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.04077964203762961</v>
+      </c>
+      <c r="D55">
+        <v>-0.03181391609232555</v>
+      </c>
+      <c r="E55">
+        <v>0.006126745562466273</v>
+      </c>
+      <c r="F55">
+        <v>-0.01904518474179789</v>
+      </c>
+      <c r="G55">
+        <v>-0.002600558630339898</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1359319190954664</v>
+        <v>-0.1578393805148985</v>
       </c>
       <c r="C56">
-        <v>-0.1119768494372198</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.07375054214124496</v>
+      </c>
+      <c r="D56">
+        <v>-0.01803386826603292</v>
+      </c>
+      <c r="E56">
+        <v>-0.04021666779519949</v>
+      </c>
+      <c r="F56">
+        <v>-0.04701161616103647</v>
+      </c>
+      <c r="G56">
+        <v>0.01935510486325446</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1999,896 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.113416853505809</v>
+        <v>-0.1012233620467187</v>
       </c>
       <c r="C58">
-        <v>-0.03053771038425356</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.009964671773613723</v>
+      </c>
+      <c r="D58">
+        <v>-0.05133000406319497</v>
+      </c>
+      <c r="E58">
+        <v>0.186690077869596</v>
+      </c>
+      <c r="F58">
+        <v>-0.04692901692369111</v>
+      </c>
+      <c r="G58">
+        <v>0.04128542183009246</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1042083682879758</v>
+        <v>-0.1461857680182048</v>
       </c>
       <c r="C59">
-        <v>-0.0872144540690933</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.08552410446111156</v>
+      </c>
+      <c r="D59">
+        <v>0.3541778783013467</v>
+      </c>
+      <c r="E59">
+        <v>0.04873764548300515</v>
+      </c>
+      <c r="F59">
+        <v>0.02187842362608828</v>
+      </c>
+      <c r="G59">
+        <v>0.03088056754590023</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.1830248853119532</v>
+        <v>-0.2183321310614832</v>
       </c>
       <c r="C60">
-        <v>-0.1223908305261371</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.07711939659011677</v>
+      </c>
+      <c r="D60">
+        <v>-0.01501299857951442</v>
+      </c>
+      <c r="E60">
+        <v>-0.07388187712999147</v>
+      </c>
+      <c r="F60">
+        <v>-0.03816043998288265</v>
+      </c>
+      <c r="G60">
+        <v>-0.02448950898819299</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.07494265298634062</v>
+        <v>-0.08637150868280116</v>
       </c>
       <c r="C61">
-        <v>-0.06399017563647441</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.03991464173877467</v>
+      </c>
+      <c r="D61">
+        <v>-0.0654097011546499</v>
+      </c>
+      <c r="E61">
+        <v>-0.0171093106533557</v>
+      </c>
+      <c r="F61">
+        <v>-0.008467730471469084</v>
+      </c>
+      <c r="G61">
+        <v>0.01598997764467111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1161545219459839</v>
+        <v>-0.1387655665557441</v>
       </c>
       <c r="C62">
-        <v>-0.08526417121609707</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.05556394087982648</v>
+      </c>
+      <c r="D62">
+        <v>-0.02402779809715521</v>
+      </c>
+      <c r="E62">
+        <v>-0.05545991252583287</v>
+      </c>
+      <c r="F62">
+        <v>-0.01781410861386785</v>
+      </c>
+      <c r="G62">
+        <v>-0.02817173656203907</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.0502649939172242</v>
+        <v>-0.0517154725806754</v>
       </c>
       <c r="C63">
-        <v>-0.0321539314419653</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.01600025883601751</v>
+      </c>
+      <c r="D63">
+        <v>-0.03236641230520175</v>
+      </c>
+      <c r="E63">
+        <v>0.04618293558027359</v>
+      </c>
+      <c r="F63">
+        <v>-0.01254709443965307</v>
+      </c>
+      <c r="G63">
+        <v>-0.02688717014976882</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1069049112024701</v>
+        <v>-0.1127715111138155</v>
       </c>
       <c r="C64">
-        <v>-0.04625192301991254</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.01437507758468067</v>
+      </c>
+      <c r="D64">
+        <v>-0.04632383990012999</v>
+      </c>
+      <c r="E64">
+        <v>0.02564156179188563</v>
+      </c>
+      <c r="F64">
+        <v>-0.05820203754175928</v>
+      </c>
+      <c r="G64">
+        <v>-0.02337252454480242</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.109427218142954</v>
+        <v>-0.1242397481407697</v>
       </c>
       <c r="C65">
-        <v>-0.07009285091803867</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04050158415166186</v>
+      </c>
+      <c r="D65">
+        <v>-0.009805984907417317</v>
+      </c>
+      <c r="E65">
+        <v>-0.003200133266359752</v>
+      </c>
+      <c r="F65">
+        <v>-0.06440755121826179</v>
+      </c>
+      <c r="G65">
+        <v>-0.02721132792652821</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.1331892948972475</v>
+        <v>-0.1528437129093153</v>
       </c>
       <c r="C66">
-        <v>-0.09699503725299527</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.05497588349130477</v>
+      </c>
+      <c r="D66">
+        <v>-0.1176194740290366</v>
+      </c>
+      <c r="E66">
+        <v>-0.0555949119980242</v>
+      </c>
+      <c r="F66">
+        <v>-0.04050983678868673</v>
+      </c>
+      <c r="G66">
+        <v>-0.01586358479682508</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.0697045674701041</v>
+        <v>-0.07545496311760273</v>
       </c>
       <c r="C67">
-        <v>-0.02434611151249522</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.007107159468162502</v>
+      </c>
+      <c r="D67">
+        <v>-0.02501989597855143</v>
+      </c>
+      <c r="E67">
+        <v>0.02530016897392572</v>
+      </c>
+      <c r="F67">
+        <v>-3.611721213101418e-05</v>
+      </c>
+      <c r="G67">
+        <v>0.004016951543474465</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.05101716884451778</v>
+        <v>-0.06666140623722812</v>
       </c>
       <c r="C68">
-        <v>-0.0488610802549104</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.0494699263659462</v>
+      </c>
+      <c r="D68">
+        <v>0.2682399238460048</v>
+      </c>
+      <c r="E68">
+        <v>0.05086084233625536</v>
+      </c>
+      <c r="F68">
+        <v>-0.01118695836251243</v>
+      </c>
+      <c r="G68">
+        <v>0.007585469097326636</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.04929170868173489</v>
+        <v>-0.05123830247379727</v>
       </c>
       <c r="C69">
-        <v>-0.02639865526335777</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.009752637926044298</v>
+      </c>
+      <c r="D69">
+        <v>-0.03354813646729644</v>
+      </c>
+      <c r="E69">
+        <v>0.02213880945813093</v>
+      </c>
+      <c r="F69">
+        <v>0.0004440529822262958</v>
+      </c>
+      <c r="G69">
+        <v>0.01063759461520603</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.004752029285639963</v>
+        <v>-0.01673060575976635</v>
       </c>
       <c r="C70">
-        <v>0.003074607871537149</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.0002996355725958839</v>
+      </c>
+      <c r="D70">
+        <v>0.007585370804838628</v>
+      </c>
+      <c r="E70">
+        <v>-0.02091431074109266</v>
+      </c>
+      <c r="F70">
+        <v>-0.01292736169181492</v>
+      </c>
+      <c r="G70">
+        <v>0.0206547531760169</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.05488568550658029</v>
+        <v>-0.07134389869918094</v>
       </c>
       <c r="C71">
-        <v>-0.04832409480098564</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.04896202562957504</v>
+      </c>
+      <c r="D71">
+        <v>0.2996702301654057</v>
+      </c>
+      <c r="E71">
+        <v>0.04675710563385152</v>
+      </c>
+      <c r="F71">
+        <v>-0.03487166758476958</v>
+      </c>
+      <c r="G71">
+        <v>0.002360849191645556</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1309001845298156</v>
+        <v>-0.1543852000307362</v>
       </c>
       <c r="C72">
-        <v>-0.07966541500404141</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.04552929884764711</v>
+      </c>
+      <c r="D72">
+        <v>-0.008182509715422608</v>
+      </c>
+      <c r="E72">
+        <v>-0.08497267679096057</v>
+      </c>
+      <c r="F72">
+        <v>0.1622417907920933</v>
+      </c>
+      <c r="G72">
+        <v>-0.1173705857738994</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.2435884477217097</v>
+        <v>-0.2753477870200364</v>
       </c>
       <c r="C73">
-        <v>-0.1472750344062168</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.07724365925254842</v>
+      </c>
+      <c r="D73">
+        <v>-0.06993204952763356</v>
+      </c>
+      <c r="E73">
+        <v>-0.1906564480120396</v>
+      </c>
+      <c r="F73">
+        <v>-0.06856537409041497</v>
+      </c>
+      <c r="G73">
+        <v>0.1810849939130985</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.07201464360491928</v>
+        <v>-0.0895037263300965</v>
       </c>
       <c r="C74">
-        <v>-0.08555100752434225</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.06353579714887166</v>
+      </c>
+      <c r="D74">
+        <v>-0.03615715835403707</v>
+      </c>
+      <c r="E74">
+        <v>-0.006983451645161249</v>
+      </c>
+      <c r="F74">
+        <v>0.01254083260986591</v>
+      </c>
+      <c r="G74">
+        <v>0.03111976568366849</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.09386825242649026</v>
+        <v>-0.1039506884174777</v>
       </c>
       <c r="C75">
-        <v>-0.06691123368463346</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.03451488444190846</v>
+      </c>
+      <c r="D75">
+        <v>-0.01475864775400965</v>
+      </c>
+      <c r="E75">
+        <v>-0.00138340383495736</v>
+      </c>
+      <c r="F75">
+        <v>-0.0528678841632567</v>
+      </c>
+      <c r="G75">
+        <v>0.02039328835766646</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1145872755967781</v>
+        <v>-0.1334484260430416</v>
       </c>
       <c r="C76">
-        <v>-0.100528365045075</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.06714212846991112</v>
+      </c>
+      <c r="D76">
+        <v>-0.05682531228065006</v>
+      </c>
+      <c r="E76">
+        <v>0.007571027978045248</v>
+      </c>
+      <c r="F76">
+        <v>-0.06144647990671203</v>
+      </c>
+      <c r="G76">
+        <v>0.00560640609888385</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.114517266196306</v>
+        <v>-0.1136016357805242</v>
       </c>
       <c r="C77">
-        <v>-0.06435103422107334</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.02357582727584812</v>
+      </c>
+      <c r="D77">
+        <v>-0.02395500753092899</v>
+      </c>
+      <c r="E77">
+        <v>-0.01344039239330428</v>
+      </c>
+      <c r="F77">
+        <v>-0.2602619739542051</v>
+      </c>
+      <c r="G77">
+        <v>-0.8799104081541974</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.08533540675409779</v>
+        <v>-0.1073937125775753</v>
       </c>
       <c r="C78">
-        <v>-0.05146794103945551</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03069391730899868</v>
+      </c>
+      <c r="D78">
+        <v>-0.06976996368636869</v>
+      </c>
+      <c r="E78">
+        <v>0.05798307298703336</v>
+      </c>
+      <c r="F78">
+        <v>-0.009369553642613843</v>
+      </c>
+      <c r="G78">
+        <v>-0.03109670339942931</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1324629867755284</v>
+        <v>-0.150144398070171</v>
       </c>
       <c r="C79">
-        <v>-0.1054396722887193</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.06301828385560955</v>
+      </c>
+      <c r="D79">
+        <v>-0.02826255635294642</v>
+      </c>
+      <c r="E79">
+        <v>-0.02547434650561367</v>
+      </c>
+      <c r="F79">
+        <v>-0.02762305432890637</v>
+      </c>
+      <c r="G79">
+        <v>0.022282073146367</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.0389528903694667</v>
+        <v>-0.03771307483356787</v>
       </c>
       <c r="C80">
-        <v>-0.01989890985869599</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.006697057188437788</v>
+      </c>
+      <c r="D80">
+        <v>-0.02728140283969957</v>
+      </c>
+      <c r="E80">
+        <v>-0.004046650599596614</v>
+      </c>
+      <c r="F80">
+        <v>0.02707532080740232</v>
+      </c>
+      <c r="G80">
+        <v>0.03725707126082373</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1069592091774248</v>
+        <v>-0.1196407636269187</v>
       </c>
       <c r="C81">
-        <v>-0.0802778689558849</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.04639782109050489</v>
+      </c>
+      <c r="D81">
+        <v>-0.03150256773398829</v>
+      </c>
+      <c r="E81">
+        <v>-0.008841191339309691</v>
+      </c>
+      <c r="F81">
+        <v>-0.02739326262360311</v>
+      </c>
+      <c r="G81">
+        <v>0.05976107111951717</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1152251203919352</v>
+        <v>-0.1272316002752604</v>
       </c>
       <c r="C82">
-        <v>-0.09284566461945509</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.05740919665059956</v>
+      </c>
+      <c r="D82">
+        <v>-0.03507160733478749</v>
+      </c>
+      <c r="E82">
+        <v>-0.02658180874089273</v>
+      </c>
+      <c r="F82">
+        <v>-0.04979973365787883</v>
+      </c>
+      <c r="G82">
+        <v>0.04861052468252204</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.07322871985459993</v>
+        <v>-0.07521340555740375</v>
       </c>
       <c r="C83">
-        <v>-0.02416472572295278</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.001894117897803687</v>
+      </c>
+      <c r="D83">
+        <v>-0.04226964408091498</v>
+      </c>
+      <c r="E83">
+        <v>0.01396117113774141</v>
+      </c>
+      <c r="F83">
+        <v>-0.01051728773825838</v>
+      </c>
+      <c r="G83">
+        <v>0.08189207357956442</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.02266346360763709</v>
+        <v>-0.03279193114213013</v>
       </c>
       <c r="C84">
-        <v>-0.02075136286521559</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01731830870317895</v>
+      </c>
+      <c r="D84">
+        <v>-0.0241711534066442</v>
+      </c>
+      <c r="E84">
+        <v>0.01678718706059303</v>
+      </c>
+      <c r="F84">
+        <v>0.0504989579567433</v>
+      </c>
+      <c r="G84">
+        <v>0.06043171408516042</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1130493039739043</v>
+        <v>-0.1185346703319164</v>
       </c>
       <c r="C85">
-        <v>-0.07997691925642865</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.04086227999860448</v>
+      </c>
+      <c r="D85">
+        <v>-0.03158525255888656</v>
+      </c>
+      <c r="E85">
+        <v>0.003680758661638223</v>
+      </c>
+      <c r="F85">
+        <v>-0.07485234826912122</v>
+      </c>
+      <c r="G85">
+        <v>0.02448338012648352</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.04470922365077083</v>
+        <v>-0.04899983234918236</v>
       </c>
       <c r="C86">
-        <v>-0.02293462785881886</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.009594844922426902</v>
+      </c>
+      <c r="D86">
+        <v>-0.01573760987747035</v>
+      </c>
+      <c r="E86">
+        <v>0.04905489437067551</v>
+      </c>
+      <c r="F86">
+        <v>-0.01654623683978247</v>
+      </c>
+      <c r="G86">
+        <v>0.02205091887939362</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.1164254449154655</v>
+        <v>-0.1228566225632331</v>
       </c>
       <c r="C87">
-        <v>-0.08832245893548872</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.04467477070690877</v>
+      </c>
+      <c r="D87">
+        <v>-0.07006868493911944</v>
+      </c>
+      <c r="E87">
+        <v>0.01993064752134524</v>
+      </c>
+      <c r="F87">
+        <v>-0.0369806154910779</v>
+      </c>
+      <c r="G87">
+        <v>-0.09989727913523526</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.05231791246963125</v>
+        <v>-0.05894781555005607</v>
       </c>
       <c r="C88">
-        <v>-0.04094182618581681</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.02432619773945957</v>
+      </c>
+      <c r="D88">
+        <v>-0.02561027546199696</v>
+      </c>
+      <c r="E88">
+        <v>0.01965160280411106</v>
+      </c>
+      <c r="F88">
+        <v>-0.01029995608266839</v>
+      </c>
+      <c r="G88">
+        <v>-0.01328104226787345</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.07297955432018544</v>
+        <v>-0.1045597639646011</v>
       </c>
       <c r="C89">
-        <v>-0.07584757750459965</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.0769874366160954</v>
+      </c>
+      <c r="D89">
+        <v>0.330393664059235</v>
+      </c>
+      <c r="E89">
+        <v>0.07777192976024574</v>
+      </c>
+      <c r="F89">
+        <v>-0.06210879924742273</v>
+      </c>
+      <c r="G89">
+        <v>0.02044959779522978</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.06471110182122207</v>
+        <v>-0.08639590453289996</v>
       </c>
       <c r="C90">
-        <v>-0.06604837928092408</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.06345411746238458</v>
+      </c>
+      <c r="D90">
+        <v>0.3080613004227235</v>
+      </c>
+      <c r="E90">
+        <v>0.06514591210953646</v>
+      </c>
+      <c r="F90">
+        <v>0.01214419640859826</v>
+      </c>
+      <c r="G90">
+        <v>0.006781173259290302</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.07567479945362941</v>
+        <v>-0.08787234744494292</v>
       </c>
       <c r="C91">
-        <v>-0.06768659113161762</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.04406372543512705</v>
+      </c>
+      <c r="D91">
+        <v>-0.02677502692060494</v>
+      </c>
+      <c r="E91">
+        <v>0.01271821776556481</v>
+      </c>
+      <c r="F91">
+        <v>-0.007403713614521523</v>
+      </c>
+      <c r="G91">
+        <v>0.03988485722389266</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.07812919345490041</v>
+        <v>-0.1015893244380904</v>
       </c>
       <c r="C92">
-        <v>-0.07334850007121739</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.06837115703589074</v>
+      </c>
+      <c r="D92">
+        <v>0.3319899530268774</v>
+      </c>
+      <c r="E92">
+        <v>0.04521100126230158</v>
+      </c>
+      <c r="F92">
+        <v>-0.02381885502556855</v>
+      </c>
+      <c r="G92">
+        <v>0.003056463522640489</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.05834098237888882</v>
+        <v>-0.08382352078984776</v>
       </c>
       <c r="C93">
-        <v>-0.06208594849200871</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.06506518830871247</v>
+      </c>
+      <c r="D93">
+        <v>0.3023114218733204</v>
+      </c>
+      <c r="E93">
+        <v>0.03631530821600868</v>
+      </c>
+      <c r="F93">
+        <v>-0.03727573426917022</v>
+      </c>
+      <c r="G93">
+        <v>-0.004808658867098979</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.12337130002228</v>
+        <v>-0.1277012438096914</v>
       </c>
       <c r="C94">
-        <v>-0.07974501367512865</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.03504258928175744</v>
+      </c>
+      <c r="D94">
+        <v>-0.0555044402679007</v>
+      </c>
+      <c r="E94">
+        <v>-0.02353156515541261</v>
+      </c>
+      <c r="F94">
+        <v>-0.0309999768208002</v>
+      </c>
+      <c r="G94">
+        <v>0.04565290305356982</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.110293480656425</v>
+        <v>-0.1187610015485626</v>
       </c>
       <c r="C95">
-        <v>-0.0580084004506663</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.02215859843329928</v>
+      </c>
+      <c r="D95">
+        <v>-0.05804161347358652</v>
+      </c>
+      <c r="E95">
+        <v>-0.01530129320718572</v>
+      </c>
+      <c r="F95">
+        <v>-0.02291950587082056</v>
+      </c>
+      <c r="G95">
+        <v>0.01517404077123068</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2896,91 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1979051954697238</v>
+        <v>-0.221893873402091</v>
       </c>
       <c r="C97">
-        <v>-0.0729369939223667</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.03024649172409873</v>
+      </c>
+      <c r="D97">
+        <v>0.01337666006073098</v>
+      </c>
+      <c r="E97">
+        <v>-0.1288549177467288</v>
+      </c>
+      <c r="F97">
+        <v>0.891426310583204</v>
+      </c>
+      <c r="G97">
+        <v>-0.2087668304752593</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.232970459749048</v>
+        <v>-0.2652012976819657</v>
       </c>
       <c r="C98">
-        <v>-0.1277809336594806</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.06070245043430058</v>
+      </c>
+      <c r="D98">
+        <v>-0.04892893362744181</v>
+      </c>
+      <c r="E98">
+        <v>-0.1624645516819771</v>
+      </c>
+      <c r="F98">
+        <v>-0.03095695290482336</v>
+      </c>
+      <c r="G98">
+        <v>0.2665926991530878</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.5715388588950711</v>
+        <v>-0.3456324536262282</v>
       </c>
       <c r="C99">
-        <v>0.8100112122155021</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.9259535680030511</v>
+      </c>
+      <c r="D99">
+        <v>0.08253300291840666</v>
+      </c>
+      <c r="E99">
+        <v>0.04314004056908184</v>
+      </c>
+      <c r="F99">
+        <v>-0.04195144935862592</v>
+      </c>
+      <c r="G99">
+        <v>0.01280526005544269</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2988,45 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.03588127314882499</v>
+        <v>-0.04445455202714427</v>
       </c>
       <c r="C101">
-        <v>-0.032631818269284</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.02424014216037703</v>
+      </c>
+      <c r="D101">
+        <v>-0.01073222278765698</v>
+      </c>
+      <c r="E101">
+        <v>0.03825409395176394</v>
+      </c>
+      <c r="F101">
+        <v>-0.01443243328129872</v>
+      </c>
+      <c r="G101">
+        <v>0.01566451449428686</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
